--- a/assets/template.xlsx
+++ b/assets/template.xlsx
@@ -20,39 +20,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">INFORMATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOKASI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDAMAN IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDAMAN OUT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">INFROMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOKASI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ODP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REDAMAN IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REDAMAN OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KETERANGAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -94,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -105,6 +107,55 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
       <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -135,24 +186,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -173,140 +256,300 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="1.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="1.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2"/>
+      <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2"/>
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2"/>
+      <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="G5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2"/>
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="G7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2"/>
+      <c r="G8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="B1:B8"/>
-    <mergeCell ref="C1:C8"/>
-    <mergeCell ref="D1:D8"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:A18"/>
+    <mergeCell ref="B1:B18"/>
+    <mergeCell ref="C1:C9"/>
+    <mergeCell ref="D1:D18"/>
+    <mergeCell ref="E1:E9"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:E18"/>
+    <mergeCell ref="G10:K18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
